--- a/Municipios.xlsx
+++ b/Municipios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mekar\Desktop\Prueba Tecnica\Prueba técnica Analista de datos - ADRES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\PruebaTecnica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09FC18-3DDE-4B0B-B3E2-805CF7119815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84366866-3601-4086-8B80-A5055DD970DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6091,8 +6091,8 @@
   <dimension ref="A1:H1119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1097" sqref="C1097"/>
+      <pane ySplit="1" topLeftCell="A1085" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1096" sqref="J1096"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34668,6 +34668,9 @@
       <c r="D1099" s="1">
         <v>94663</v>
       </c>
+      <c r="E1099">
+        <v>6457</v>
+      </c>
       <c r="F1099">
         <v>1048</v>
       </c>
